--- a/data/points_data.xlsx
+++ b/data/points_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\GitHub\archive_maps\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D3A83C-D9FC-49B8-9D42-40E0166AEACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5C254-FB2A-4283-B719-8ECDC45FAC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="points_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -101,12 +101,18 @@
   </si>
   <si>
     <t>Built in 1798 and rebuilt in 1907, the church serves as a notable example of ecclesiastical architecture.</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>About me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,10 +946,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1141,6 +1149,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>56.558399999999999</v>
+      </c>
+      <c r="D9">
+        <v>-3.5806</v>
+      </c>
+      <c r="F9">
+        <v>1660</v>
+      </c>
+      <c r="G9">
+        <v>1670</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/points_data.xlsx
+++ b/data/points_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\GitHub\archive_maps\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5C254-FB2A-4283-B719-8ECDC45FAC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA5A93-7DEB-427D-A3B5-DD1F9F77DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -973,16 +973,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -998,17 +998,17 @@
       <c r="D2">
         <v>-3.5855008800000001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1820</v>
+      </c>
+      <c r="F2">
+        <v>1830</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1820</v>
-      </c>
-      <c r="G2">
-        <v>1830</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1024,13 +1024,13 @@
       <c r="D3">
         <v>-3.5896846</v>
       </c>
+      <c r="E3">
+        <v>1689</v>
+      </c>
       <c r="F3">
         <v>1689</v>
       </c>
-      <c r="G3">
-        <v>1689</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1047,13 +1047,13 @@
       <c r="D4">
         <v>-3.5852740000000001</v>
       </c>
+      <c r="E4">
+        <v>1805</v>
+      </c>
       <c r="F4">
-        <v>1805</v>
-      </c>
-      <c r="G4">
         <v>1809</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1070,13 +1070,13 @@
       <c r="D5">
         <v>-3.5707</v>
       </c>
+      <c r="E5">
+        <v>1883</v>
+      </c>
       <c r="F5">
         <v>1883</v>
       </c>
-      <c r="G5">
-        <v>1883</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1093,13 +1093,13 @@
       <c r="D6">
         <v>-3.5800999999999998</v>
       </c>
+      <c r="E6">
+        <v>1500</v>
+      </c>
       <c r="F6">
         <v>1500</v>
       </c>
-      <c r="G6">
-        <v>1500</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1116,13 +1116,13 @@
       <c r="D7">
         <v>-3.5714000000000001</v>
       </c>
+      <c r="E7">
+        <v>1856</v>
+      </c>
       <c r="F7">
         <v>1856</v>
       </c>
-      <c r="G7">
-        <v>1856</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1139,13 +1139,13 @@
       <c r="D8">
         <v>-3.5806</v>
       </c>
+      <c r="E8">
+        <v>1798</v>
+      </c>
       <c r="F8">
         <v>1798</v>
       </c>
-      <c r="G8">
-        <v>1798</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1162,13 +1162,13 @@
       <c r="D9">
         <v>-3.5806</v>
       </c>
+      <c r="E9">
+        <v>1660</v>
+      </c>
       <c r="F9">
-        <v>1660</v>
-      </c>
-      <c r="G9">
         <v>1670</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
     </row>
